--- a/4. cosine similarity (synonym)/synonym.xlsx
+++ b/4. cosine similarity (synonym)/synonym.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
     <t>use</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>midf</t>
+  </si>
+  <si>
+    <t>advanced</t>
   </si>
 </sst>
 </file>
@@ -322,11 +325,11 @@
   <tableColumns count="7">
     <tableColumn id="3" name="term" dataDxfId="6"/>
     <tableColumn id="4" name="ref" dataDxfId="5"/>
-    <tableColumn id="1" name="term_stemmed" dataDxfId="1"/>
-    <tableColumn id="2" name="ref_stemmed" dataDxfId="0"/>
-    <tableColumn id="5" name="tf_idf" dataDxfId="4"/>
-    <tableColumn id="6" name="widf" dataDxfId="3"/>
-    <tableColumn id="7" name="midf" dataDxfId="2"/>
+    <tableColumn id="1" name="term_stemmed" dataDxfId="4"/>
+    <tableColumn id="2" name="ref_stemmed" dataDxfId="3"/>
+    <tableColumn id="5" name="tf_idf" dataDxfId="2"/>
+    <tableColumn id="6" name="widf" dataDxfId="1"/>
+    <tableColumn id="7" name="midf" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -621,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,343 +659,343 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E39" s="1"/>
     </row>
